--- a/2016昆山实践操作/成绩录入.xlsx
+++ b/2016昆山实践操作/成绩录入.xlsx
@@ -4722,12 +4722,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="#0&quot;得&quot;&quot;分&quot;\ 0&quot;分&quot;00&quot;秒&quot;00"/>
+    <numFmt numFmtId="177" formatCode="00&quot;分&quot;00&quot;秒&quot;00"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="#0&quot;得&quot;&quot;分&quot;\ 0&quot;分&quot;00&quot;秒&quot;00"/>
-    <numFmt numFmtId="177" formatCode="00&quot;分&quot;00&quot;秒&quot;00"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -4789,23 +4789,30 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4816,18 +4823,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4848,6 +4848,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -4861,25 +4868,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4893,23 +4884,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4923,8 +4907,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4932,6 +4925,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4965,7 +4965,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4983,13 +5043,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5007,12 +5103,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -5025,19 +5115,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5049,103 +5139,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5187,26 +5187,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5226,17 +5232,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5251,186 +5284,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -6080,9 +6080,9 @@
   <dimension ref="A1:E305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A225" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D305" sqref="D3:D305"/>
+      <selection pane="bottomLeft" activeCell="A237" sqref="A237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -6177,7 +6177,7 @@
         <v>37</v>
       </c>
       <c r="D6" s="18">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="E6" s="7"/>
     </row>
@@ -6426,7 +6426,7 @@
         <v>75</v>
       </c>
       <c r="D23" s="18">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="E23" s="7"/>
     </row>
@@ -6455,7 +6455,9 @@
       <c r="C25" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="18"/>
+      <c r="D25" s="18">
+        <v>88</v>
+      </c>
       <c r="E25" s="7"/>
     </row>
     <row r="26" ht="20" customHeight="1" spans="1:5">
@@ -6468,7 +6470,9 @@
       <c r="C26" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="18"/>
+      <c r="D26" s="18">
+        <v>79</v>
+      </c>
       <c r="E26" s="7"/>
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:5">
@@ -7853,9 +7857,7 @@
       <c r="C121" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="D121" s="18">
-        <v>78</v>
-      </c>
+      <c r="D121" s="18"/>
       <c r="E121" s="7"/>
     </row>
     <row r="122" ht="20" customHeight="1" spans="1:5">
@@ -7881,9 +7883,7 @@
       <c r="C123" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="D123" s="18">
-        <v>74</v>
-      </c>
+      <c r="D123" s="18"/>
       <c r="E123" s="7"/>
     </row>
     <row r="124" ht="20" customHeight="1" spans="1:5">
@@ -7896,9 +7896,7 @@
       <c r="C124" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="D124" s="18">
-        <v>76</v>
-      </c>
+      <c r="D124" s="18"/>
       <c r="E124" s="7"/>
     </row>
     <row r="125" ht="20" customHeight="1" spans="1:5">
@@ -11322,7 +11320,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E95" sqref="D94:E95"/>
+      <selection pane="bottomLeft" activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>

--- a/2016昆山实践操作/成绩录入.xlsx
+++ b/2016昆山实践操作/成绩录入.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21510" windowHeight="10530" activeTab="1"/>
+    <workbookView windowWidth="20400" windowHeight="8550" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="1" state="hidden" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="C2" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'A1'!$1:2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'A1'!$A$2:$E$305</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'C2'!$A$2:$D$175</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'A1'!$1:2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'A2'!$1:2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'A2'!$A$2:$E$50</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'B1'!$1:2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'C1'!$1:2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="6">'C2'!$1:2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'C2'!$A$2:$D$175</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -2372,46 +2373,232 @@
     <t>“缤纷童年”场景规划制作团体赛</t>
   </si>
   <si>
+    <t>喻方卓 龚淑慧 徐定操</t>
+  </si>
+  <si>
+    <t>A2A017</t>
+  </si>
+  <si>
+    <t>谭小倩 王玥</t>
+  </si>
+  <si>
+    <t>A2B012</t>
+  </si>
+  <si>
+    <t>顾圣茜 缪子馨 钟雨昕 马超映 郭静涵</t>
+  </si>
+  <si>
+    <t>A2B014</t>
+  </si>
+  <si>
+    <t>吴嘉轩 王振宁 冯陈敏强</t>
+  </si>
+  <si>
+    <t>A2A023</t>
+  </si>
+  <si>
+    <t>吴婧菁 汤敏兰 潘谦 顾希雅 何栩蝶</t>
+  </si>
+  <si>
+    <t>A2B011</t>
+  </si>
+  <si>
+    <t>马天心 侯慧凌 李瑭 殷姝 刘杰瑞 杨智平</t>
+  </si>
+  <si>
+    <t>A2A012</t>
+  </si>
+  <si>
+    <t>金俊杰 李志维 潘奕蒙 牛嘉琪 邓明月</t>
+  </si>
+  <si>
+    <t>A2A018</t>
+  </si>
+  <si>
+    <t>陈煜宁贾雅婕王郁欣万小玥王怡欢</t>
+  </si>
+  <si>
+    <t>A2B003</t>
+  </si>
+  <si>
+    <t>赵珺怡 陈孙旺 马骁 吕依涵 朱玉清</t>
+  </si>
+  <si>
+    <t>A2A026</t>
+  </si>
+  <si>
     <t>郑欣然 方玉莟 董苏苏</t>
   </si>
   <si>
     <t>A2A001</t>
   </si>
   <si>
+    <t>孙畅 孙雨萱 朱佳琪</t>
+  </si>
+  <si>
+    <t>A2A006</t>
+  </si>
+  <si>
+    <t>鲁彬妍 唐文雯 段文琪 徐洋</t>
+  </si>
+  <si>
+    <t>A2A014</t>
+  </si>
+  <si>
+    <t>陈鑫鑫 李华山 刘潮鸯 冯俊雯 朱昱昕</t>
+  </si>
+  <si>
+    <t>A2B006</t>
+  </si>
+  <si>
+    <t>A2A032</t>
+  </si>
+  <si>
+    <t>童宸悦 杨怡静 徐朱璇 李嘉雯 王佳庆</t>
+  </si>
+  <si>
+    <t>A2B001</t>
+  </si>
+  <si>
+    <t>谭璇 赵萧艾 王思妍</t>
+  </si>
+  <si>
+    <t>A2A016</t>
+  </si>
+  <si>
+    <t>柴轶民 李永琨 熊泽睿</t>
+  </si>
+  <si>
+    <t>A2A025</t>
+  </si>
+  <si>
+    <t>陈静怡 李诗怡 侯金淑 陆韵</t>
+  </si>
+  <si>
+    <t>A2A013</t>
+  </si>
+  <si>
+    <t>A2B016</t>
+  </si>
+  <si>
+    <t>冉佳慧 马宁 杨思语 彭洪畅 沈雯轩</t>
+  </si>
+  <si>
+    <t>A2A003</t>
+  </si>
+  <si>
+    <t>吕丹桂 李心怡 彭诗语 吉美绮 韦子轩</t>
+  </si>
+  <si>
+    <t>A2A005</t>
+  </si>
+  <si>
+    <t>郭轩莛 刘蕊 徐婉悦</t>
+  </si>
+  <si>
+    <t>A2A007</t>
+  </si>
+  <si>
+    <t>陈帆 支明浩 许嘉睿 刘智杰 顾欣</t>
+  </si>
+  <si>
+    <t>A2B005</t>
+  </si>
+  <si>
+    <t>张严 文世成 黄宏钖 郭旭 田文宇</t>
+  </si>
+  <si>
+    <t>A2B010</t>
+  </si>
+  <si>
+    <t>张毅恒 张鼎易 钱璐</t>
+  </si>
+  <si>
+    <t>A2A009</t>
+  </si>
+  <si>
+    <t>李静怡 丁佳怡 王晨曦 吴庆坤 陈荣达</t>
+  </si>
+  <si>
+    <t>A2A021</t>
+  </si>
+  <si>
+    <t>时智琰、方影、茆婕、唐嘉怡</t>
+  </si>
+  <si>
+    <t>A2B002</t>
+  </si>
+  <si>
+    <t>朱一文 王蕊 李明辉 钱宏杰 朱弘毅</t>
+  </si>
+  <si>
+    <t>A2A020</t>
+  </si>
+  <si>
+    <t>金顺城 孙浦文 赵睿哲 黄宏艳 顾王诗涵</t>
+  </si>
+  <si>
+    <t>A2A004</t>
+  </si>
+  <si>
+    <t>蒋袁萱 张璐 黄莹莹</t>
+  </si>
+  <si>
+    <t>A2B007</t>
+  </si>
+  <si>
+    <t>于苍龙 缪万凯 操跃</t>
+  </si>
+  <si>
+    <t>A2A031</t>
+  </si>
+  <si>
+    <t>屈韩钰 黄晓琪 俞洋 黄诗怡</t>
+  </si>
+  <si>
+    <t>A2A030</t>
+  </si>
+  <si>
+    <t>廖诗语 张开絮</t>
+  </si>
+  <si>
+    <t>A2A027</t>
+  </si>
+  <si>
     <t>袁婷</t>
   </si>
   <si>
     <t>A2A002</t>
   </si>
   <si>
-    <t>冉佳慧 马宁 杨思语 彭洪畅 沈雯轩</t>
-  </si>
-  <si>
-    <t>A2A003</t>
-  </si>
-  <si>
-    <t>金顺城 孙浦文 赵睿哲 黄宏艳 顾王诗涵</t>
-  </si>
-  <si>
-    <t>A2A004</t>
-  </si>
-  <si>
-    <t>吕丹桂 李心怡 彭诗语 吉美绮 韦子轩</t>
-  </si>
-  <si>
-    <t>A2A005</t>
-  </si>
-  <si>
-    <t>孙畅 孙雨萱 朱佳琪</t>
-  </si>
-  <si>
-    <t>A2A006</t>
-  </si>
-  <si>
-    <t>郭轩莛 刘蕊 徐婉悦</t>
-  </si>
-  <si>
-    <t>A2A007</t>
+    <t>何奕 闻佳慧 韩译珈</t>
+  </si>
+  <si>
+    <t>A2A019</t>
+  </si>
+  <si>
+    <t>李舒妤 严文璐 黄依雪 冯静 盘敏</t>
+  </si>
+  <si>
+    <t>A2A022</t>
+  </si>
+  <si>
+    <t>陆锦轩 杨振宇 郭珂珂</t>
+  </si>
+  <si>
+    <t>A2A029</t>
+  </si>
+  <si>
+    <t>吴宁宁 张舟媛 纪雯婷 陆琦 赵安琪</t>
+  </si>
+  <si>
+    <t>A2B013</t>
+  </si>
+  <si>
+    <t>石佘昊 杨源 周万鹏</t>
+  </si>
+  <si>
+    <t>A2A015</t>
   </si>
   <si>
     <t>张璇黄佳麟姚灿</t>
@@ -2420,10 +2607,22 @@
     <t>A2A008</t>
   </si>
   <si>
-    <t>张毅恒 张鼎易 钱璐</t>
-  </si>
-  <si>
-    <t>A2A009</t>
+    <t>余广生 王洋 杨博文 顾菲 王孜为 蔡玉婷</t>
+  </si>
+  <si>
+    <t>A2B009</t>
+  </si>
+  <si>
+    <t>马艺桐 尚航航 邹昊</t>
+  </si>
+  <si>
+    <t>A2A024</t>
+  </si>
+  <si>
+    <t>史少鹏 费扬军 蔡逸晨 黄宇聪 董诚</t>
+  </si>
+  <si>
+    <t>A2B004</t>
   </si>
   <si>
     <t>张天益 徐嘉仪 张艺谦</t>
@@ -2438,220 +2637,22 @@
     <t>A2A011</t>
   </si>
   <si>
-    <t>马天心 侯慧凌 李瑭 殷姝 刘杰瑞 杨智平</t>
-  </si>
-  <si>
-    <t>A2A012</t>
-  </si>
-  <si>
-    <t>陈静怡 李诗怡 侯金淑 陆韵</t>
-  </si>
-  <si>
-    <t>A2A013</t>
-  </si>
-  <si>
-    <t>鲁彬妍 唐文雯 段文琪 徐洋</t>
-  </si>
-  <si>
-    <t>A2A014</t>
-  </si>
-  <si>
-    <t>石佘昊 杨源 周万鹏</t>
-  </si>
-  <si>
-    <t>A2A015</t>
-  </si>
-  <si>
-    <t>谭璇 赵萧艾 王思妍</t>
-  </si>
-  <si>
-    <t>A2A016</t>
-  </si>
-  <si>
-    <t>喻方卓 龚淑慧 徐定操</t>
-  </si>
-  <si>
-    <t>A2A017</t>
-  </si>
-  <si>
-    <t>金俊杰 李志维 潘奕蒙 牛嘉琪 邓明月</t>
-  </si>
-  <si>
-    <t>A2A018</t>
-  </si>
-  <si>
-    <t>何奕 闻佳慧 韩译珈</t>
-  </si>
-  <si>
-    <t>A2A019</t>
-  </si>
-  <si>
-    <t>朱一文 王蕊 李明辉 钱宏杰 朱弘毅</t>
-  </si>
-  <si>
-    <t>A2A020</t>
-  </si>
-  <si>
-    <t>李静怡 丁佳怡 王晨曦 吴庆坤 陈荣达</t>
-  </si>
-  <si>
-    <t>A2A021</t>
-  </si>
-  <si>
-    <t>李舒妤 严文璐 黄依雪 冯静 盘敏</t>
-  </si>
-  <si>
-    <t>A2A022</t>
-  </si>
-  <si>
-    <t>吴嘉轩 王振宁 冯陈敏强</t>
-  </si>
-  <si>
-    <t>A2A023</t>
-  </si>
-  <si>
-    <t>马艺桐 尚航航 邹昊</t>
-  </si>
-  <si>
-    <t>A2A024</t>
-  </si>
-  <si>
-    <t>柴轶民 李永琨 熊泽睿</t>
-  </si>
-  <si>
-    <t>A2A025</t>
-  </si>
-  <si>
-    <t>赵珺怡 陈孙旺 马骁 吕依涵 朱玉清</t>
-  </si>
-  <si>
-    <t>A2A026</t>
-  </si>
-  <si>
-    <t>廖诗语 张开絮</t>
-  </si>
-  <si>
-    <t>A2A027</t>
-  </si>
-  <si>
     <t>杨晨</t>
   </si>
   <si>
     <t>A2A028</t>
   </si>
   <si>
-    <t>陆锦轩 杨振宇 郭珂珂</t>
-  </si>
-  <si>
-    <t>A2A029</t>
-  </si>
-  <si>
-    <t>屈韩钰 黄晓琪 俞洋 黄诗怡</t>
-  </si>
-  <si>
-    <t>A2A030</t>
-  </si>
-  <si>
-    <t>于苍龙 缪万凯 操跃</t>
-  </si>
-  <si>
-    <t>A2A031</t>
-  </si>
-  <si>
-    <t>A2A032</t>
-  </si>
-  <si>
-    <t>童宸悦 杨怡静 徐朱璇 李嘉雯 王佳庆</t>
-  </si>
-  <si>
-    <t>A2B001</t>
-  </si>
-  <si>
-    <t>时智琰、方影、茆婕、唐嘉怡</t>
-  </si>
-  <si>
-    <t>A2B002</t>
-  </si>
-  <si>
-    <t>陈煜宁贾雅婕王郁欣万小玥王怡欢</t>
-  </si>
-  <si>
-    <t>A2B003</t>
-  </si>
-  <si>
-    <t>史少鹏 费扬军 蔡逸晨 黄宇聪 董诚</t>
-  </si>
-  <si>
-    <t>A2B004</t>
-  </si>
-  <si>
-    <t>陈帆 支明浩 许嘉睿 刘智杰 顾欣</t>
-  </si>
-  <si>
-    <t>A2B005</t>
-  </si>
-  <si>
-    <t>陈鑫鑫 李华山 刘潮鸯 冯俊雯 朱昱昕</t>
-  </si>
-  <si>
-    <t>A2B006</t>
-  </si>
-  <si>
-    <t>蒋袁萱 张璐 黄莹莹</t>
-  </si>
-  <si>
-    <t>A2B007</t>
-  </si>
-  <si>
     <t>蒲烨 丁雨 黄柯鑫 卜致欣 王春响 古明原 郑佳文 张彦康</t>
   </si>
   <si>
     <t>A2B008</t>
   </si>
   <si>
-    <t>余广生 王洋 杨博文 顾菲 王孜为 蔡玉婷</t>
-  </si>
-  <si>
-    <t>A2B009</t>
-  </si>
-  <si>
-    <t>张严 文世成 黄宏钖 郭旭 田文宇</t>
-  </si>
-  <si>
-    <t>A2B010</t>
-  </si>
-  <si>
-    <t>吴婧菁 汤敏兰 潘谦 顾希雅 何栩蝶</t>
-  </si>
-  <si>
-    <t>A2B011</t>
-  </si>
-  <si>
-    <t>谭小倩 王玥</t>
-  </si>
-  <si>
-    <t>A2B012</t>
-  </si>
-  <si>
-    <t>吴宁宁 张舟媛 纪雯婷 陆琦 赵安琪</t>
-  </si>
-  <si>
-    <t>A2B013</t>
-  </si>
-  <si>
-    <t>顾圣茜 缪子馨 钟雨昕 马超映 郭静涵</t>
-  </si>
-  <si>
-    <t>A2B014</t>
-  </si>
-  <si>
     <t>袁馨儿 李可欣 姚嘉怡 朱婷 李若虹</t>
   </si>
   <si>
     <t>A2B015</t>
-  </si>
-  <si>
-    <t>A2B016</t>
   </si>
   <si>
     <t>“天戈”遥控直升机障碍赛</t>
@@ -4796,14 +4797,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="00&quot;分&quot;00&quot;秒&quot;00"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="#0&quot;得&quot;&quot;分&quot;\ 0&quot;分&quot;00&quot;秒&quot;00"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -4842,6 +4843,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -4863,49 +4870,43 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4919,16 +4920,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4936,31 +4944,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4975,15 +4959,24 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4996,9 +4989,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5039,7 +5046,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5057,31 +5190,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5093,61 +5208,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5165,61 +5226,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5276,51 +5283,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5345,20 +5307,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5373,158 +5347,191 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5585,16 +5592,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5609,7 +5622,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFill="1" applyAlignment="1" quotePrefix="1">
@@ -6020,14 +6033,14 @@
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
@@ -6045,7 +6058,7 @@
   <sheetPr/>
   <dimension ref="A2:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -6056,108 +6069,108 @@
   </cols>
   <sheetData>
     <row r="2" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" ht="20.25" customHeight="1" spans="1:3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="28" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" ht="20.25" customHeight="1" spans="1:3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="28" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="23" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" ht="20.25" customHeight="1" spans="1:3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="28" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" ht="20.25" customHeight="1" spans="1:3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="28" t="s">
+      <c r="A6" s="22"/>
+      <c r="B6" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
     </row>
     <row r="8" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" ht="20.25" customHeight="1" spans="1:3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="28" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="23" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A10" s="22"/>
-      <c r="B10" s="28" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="30" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="22"/>
+      <c r="A11" s="24"/>
     </row>
     <row r="12" ht="20.25" customHeight="1" spans="1:2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="22" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" ht="20.25" customHeight="1" spans="1:3">
-      <c r="A13" s="22"/>
-      <c r="B13" s="28" t="s">
+      <c r="A13" s="24"/>
+      <c r="B13" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="23" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" ht="20.25" customHeight="1" spans="1:3">
-      <c r="A14" s="22"/>
-      <c r="C14" s="21" t="s">
+      <c r="A14" s="24"/>
+      <c r="C14" s="23" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="22"/>
+      <c r="A15" s="24"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="24" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="s">
@@ -6175,7 +6188,7 @@
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="31" t="s">
         <v>13</v>
       </c>
       <c r="C19" t="s">
@@ -6206,10 +6219,10 @@
   </sheetPr>
   <dimension ref="A1:E305"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="D267" sqref="D267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -9830,8 +9843,8 @@
       <c r="C241" s="9" t="s">
         <v>572</v>
       </c>
-      <c r="D241" s="19">
-        <v>1</v>
+      <c r="D241" s="20">
+        <v>62</v>
       </c>
       <c r="E241" s="7"/>
     </row>
@@ -9845,8 +9858,8 @@
       <c r="C242" s="9" t="s">
         <v>574</v>
       </c>
-      <c r="D242" s="19">
-        <v>1</v>
+      <c r="D242" s="20">
+        <v>62</v>
       </c>
       <c r="E242" s="7"/>
     </row>
@@ -9860,8 +9873,8 @@
       <c r="C243" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="D243" s="19">
-        <v>1</v>
+      <c r="D243" s="20">
+        <v>61</v>
       </c>
       <c r="E243" s="7"/>
     </row>
@@ -9875,8 +9888,8 @@
       <c r="C244" s="9" t="s">
         <v>578</v>
       </c>
-      <c r="D244" s="19">
-        <v>1</v>
+      <c r="D244" s="20">
+        <v>61</v>
       </c>
       <c r="E244" s="7"/>
     </row>
@@ -9890,8 +9903,8 @@
       <c r="C245" s="9" t="s">
         <v>580</v>
       </c>
-      <c r="D245" s="19">
-        <v>1</v>
+      <c r="D245" s="20">
+        <v>62</v>
       </c>
       <c r="E245" s="7"/>
     </row>
@@ -9905,8 +9918,8 @@
       <c r="C246" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="D246" s="19">
-        <v>1</v>
+      <c r="D246" s="20">
+        <v>62</v>
       </c>
       <c r="E246" s="7"/>
     </row>
@@ -9920,8 +9933,8 @@
       <c r="C247" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="D247" s="19">
-        <v>1</v>
+      <c r="D247" s="20">
+        <v>60</v>
       </c>
       <c r="E247" s="7"/>
     </row>
@@ -9935,8 +9948,8 @@
       <c r="C248" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="D248" s="19">
-        <v>1</v>
+      <c r="D248" s="20">
+        <v>62</v>
       </c>
       <c r="E248" s="7"/>
     </row>
@@ -9950,8 +9963,8 @@
       <c r="C249" s="9" t="s">
         <v>588</v>
       </c>
-      <c r="D249" s="19">
-        <v>1</v>
+      <c r="D249" s="20">
+        <v>62</v>
       </c>
       <c r="E249" s="7"/>
     </row>
@@ -9965,8 +9978,8 @@
       <c r="C250" s="9" t="s">
         <v>590</v>
       </c>
-      <c r="D250" s="19">
-        <v>1</v>
+      <c r="D250" s="20">
+        <v>60</v>
       </c>
       <c r="E250" s="7"/>
     </row>
@@ -9980,8 +9993,8 @@
       <c r="C251" s="9" t="s">
         <v>592</v>
       </c>
-      <c r="D251" s="19">
-        <v>1</v>
+      <c r="D251" s="20">
+        <v>60</v>
       </c>
       <c r="E251" s="7"/>
     </row>
@@ -9995,8 +10008,8 @@
       <c r="C252" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="D252" s="19">
-        <v>1</v>
+      <c r="D252" s="20">
+        <v>61</v>
       </c>
       <c r="E252" s="7"/>
     </row>
@@ -10010,8 +10023,8 @@
       <c r="C253" s="9" t="s">
         <v>596</v>
       </c>
-      <c r="D253" s="19">
-        <v>1</v>
+      <c r="D253" s="20">
+        <v>60</v>
       </c>
       <c r="E253" s="7"/>
     </row>
@@ -10025,8 +10038,8 @@
       <c r="C254" s="9" t="s">
         <v>598</v>
       </c>
-      <c r="D254" s="19">
-        <v>1</v>
+      <c r="D254" s="20">
+        <v>61</v>
       </c>
       <c r="E254" s="7"/>
     </row>
@@ -10040,8 +10053,8 @@
       <c r="C255" s="9" t="s">
         <v>600</v>
       </c>
-      <c r="D255" s="19">
-        <v>1</v>
+      <c r="D255" s="20">
+        <v>62</v>
       </c>
       <c r="E255" s="7"/>
     </row>
@@ -10055,8 +10068,8 @@
       <c r="C256" s="9" t="s">
         <v>602</v>
       </c>
-      <c r="D256" s="19">
-        <v>1</v>
+      <c r="D256" s="20">
+        <v>62</v>
       </c>
       <c r="E256" s="7"/>
     </row>
@@ -10070,8 +10083,8 @@
       <c r="C257" s="9" t="s">
         <v>604</v>
       </c>
-      <c r="D257" s="19">
-        <v>1</v>
+      <c r="D257" s="20">
+        <v>62</v>
       </c>
       <c r="E257" s="7"/>
     </row>
@@ -10085,8 +10098,8 @@
       <c r="C258" s="9" t="s">
         <v>606</v>
       </c>
-      <c r="D258" s="19">
-        <v>1</v>
+      <c r="D258" s="20">
+        <v>62</v>
       </c>
       <c r="E258" s="7"/>
     </row>
@@ -10100,8 +10113,8 @@
       <c r="C259" s="9" t="s">
         <v>608</v>
       </c>
-      <c r="D259" s="19">
-        <v>1</v>
+      <c r="D259" s="20">
+        <v>60</v>
       </c>
       <c r="E259" s="7"/>
     </row>
@@ -10115,8 +10128,8 @@
       <c r="C260" s="9" t="s">
         <v>610</v>
       </c>
-      <c r="D260" s="19">
-        <v>1</v>
+      <c r="D260" s="20">
+        <v>62</v>
       </c>
       <c r="E260" s="7"/>
     </row>
@@ -10130,8 +10143,8 @@
       <c r="C261" s="9" t="s">
         <v>612</v>
       </c>
-      <c r="D261" s="19">
-        <v>1</v>
+      <c r="D261" s="20">
+        <v>60</v>
       </c>
       <c r="E261" s="7"/>
     </row>
@@ -10145,8 +10158,8 @@
       <c r="C262" s="9" t="s">
         <v>615</v>
       </c>
-      <c r="D262" s="19">
-        <v>1</v>
+      <c r="D262" s="20">
+        <v>61</v>
       </c>
       <c r="E262" s="7"/>
     </row>
@@ -10160,8 +10173,8 @@
       <c r="C263" s="9" t="s">
         <v>617</v>
       </c>
-      <c r="D263" s="19">
-        <v>1</v>
+      <c r="D263" s="20">
+        <v>60</v>
       </c>
       <c r="E263" s="7"/>
     </row>
@@ -10175,8 +10188,8 @@
       <c r="C264" s="9" t="s">
         <v>619</v>
       </c>
-      <c r="D264" s="19">
-        <v>1</v>
+      <c r="D264" s="20">
+        <v>61</v>
       </c>
       <c r="E264" s="7"/>
     </row>
@@ -10190,8 +10203,8 @@
       <c r="C265" s="9" t="s">
         <v>621</v>
       </c>
-      <c r="D265" s="19">
-        <v>1</v>
+      <c r="D265" s="20">
+        <v>61</v>
       </c>
       <c r="E265" s="7"/>
     </row>
@@ -10205,8 +10218,8 @@
       <c r="C266" s="9" t="s">
         <v>623</v>
       </c>
-      <c r="D266" s="19">
-        <v>1</v>
+      <c r="D266" s="20">
+        <v>60</v>
       </c>
       <c r="E266" s="7"/>
     </row>
@@ -10220,8 +10233,8 @@
       <c r="C267" s="9" t="s">
         <v>625</v>
       </c>
-      <c r="D267" s="19">
-        <v>1</v>
+      <c r="D267" s="20">
+        <v>61</v>
       </c>
       <c r="E267" s="7"/>
     </row>
@@ -10235,8 +10248,8 @@
       <c r="C268" s="9" t="s">
         <v>627</v>
       </c>
-      <c r="D268" s="19">
-        <v>1</v>
+      <c r="D268" s="20">
+        <v>62</v>
       </c>
       <c r="E268" s="7"/>
     </row>
@@ -10250,8 +10263,8 @@
       <c r="C269" s="9" t="s">
         <v>629</v>
       </c>
-      <c r="D269" s="19">
-        <v>1</v>
+      <c r="D269" s="20">
+        <v>62</v>
       </c>
       <c r="E269" s="7"/>
     </row>
@@ -10265,8 +10278,8 @@
       <c r="C270" s="9" t="s">
         <v>631</v>
       </c>
-      <c r="D270" s="19">
-        <v>1</v>
+      <c r="D270" s="20">
+        <v>61</v>
       </c>
       <c r="E270" s="7"/>
     </row>
@@ -10280,8 +10293,8 @@
       <c r="C271" s="9" t="s">
         <v>633</v>
       </c>
-      <c r="D271" s="19">
-        <v>1</v>
+      <c r="D271" s="20">
+        <v>60</v>
       </c>
       <c r="E271" s="7"/>
     </row>
@@ -10295,8 +10308,8 @@
       <c r="C272" s="9" t="s">
         <v>635</v>
       </c>
-      <c r="D272" s="19">
-        <v>1</v>
+      <c r="D272" s="20">
+        <v>61</v>
       </c>
       <c r="E272" s="7"/>
     </row>
@@ -10310,8 +10323,8 @@
       <c r="C273" s="9" t="s">
         <v>637</v>
       </c>
-      <c r="D273" s="19">
-        <v>1</v>
+      <c r="D273" s="20">
+        <v>61</v>
       </c>
       <c r="E273" s="7"/>
     </row>
@@ -10325,8 +10338,8 @@
       <c r="C274" s="9" t="s">
         <v>639</v>
       </c>
-      <c r="D274" s="19">
-        <v>1</v>
+      <c r="D274" s="20">
+        <v>62</v>
       </c>
       <c r="E274" s="7"/>
     </row>
@@ -10340,8 +10353,8 @@
       <c r="C275" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="D275" s="19">
-        <v>1</v>
+      <c r="D275" s="20">
+        <v>61</v>
       </c>
       <c r="E275" s="7"/>
     </row>
@@ -10355,8 +10368,8 @@
       <c r="C276" s="9" t="s">
         <v>643</v>
       </c>
-      <c r="D276" s="19">
-        <v>1</v>
+      <c r="D276" s="20">
+        <v>61</v>
       </c>
       <c r="E276" s="7"/>
     </row>
@@ -10370,8 +10383,8 @@
       <c r="C277" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="D277" s="19">
-        <v>1</v>
+      <c r="D277" s="20">
+        <v>61</v>
       </c>
       <c r="E277" s="7"/>
     </row>
@@ -10385,8 +10398,8 @@
       <c r="C278" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="D278" s="19">
-        <v>1</v>
+      <c r="D278" s="20">
+        <v>60</v>
       </c>
       <c r="E278" s="7"/>
     </row>
@@ -10400,8 +10413,8 @@
       <c r="C279" s="9" t="s">
         <v>649</v>
       </c>
-      <c r="D279" s="19">
-        <v>1</v>
+      <c r="D279" s="20">
+        <v>60</v>
       </c>
       <c r="E279" s="7"/>
     </row>
@@ -10415,8 +10428,8 @@
       <c r="C280" s="9" t="s">
         <v>651</v>
       </c>
-      <c r="D280" s="19">
-        <v>1</v>
+      <c r="D280" s="21">
+        <v>62</v>
       </c>
       <c r="E280" s="7"/>
     </row>
@@ -10430,8 +10443,8 @@
       <c r="C281" s="9" t="s">
         <v>653</v>
       </c>
-      <c r="D281" s="19">
-        <v>1</v>
+      <c r="D281" s="20">
+        <v>60</v>
       </c>
       <c r="E281" s="7"/>
     </row>
@@ -10445,8 +10458,8 @@
       <c r="C282" s="9" t="s">
         <v>655</v>
       </c>
-      <c r="D282" s="19">
-        <v>1</v>
+      <c r="D282" s="20">
+        <v>61</v>
       </c>
       <c r="E282" s="7"/>
     </row>
@@ -10460,8 +10473,8 @@
       <c r="C283" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="D283" s="19">
-        <v>1</v>
+      <c r="D283" s="20">
+        <v>62</v>
       </c>
       <c r="E283" s="7"/>
     </row>
@@ -10475,8 +10488,8 @@
       <c r="C284" s="9" t="s">
         <v>659</v>
       </c>
-      <c r="D284" s="19">
-        <v>1</v>
+      <c r="D284" s="20">
+        <v>61</v>
       </c>
       <c r="E284" s="7"/>
     </row>
@@ -10490,8 +10503,8 @@
       <c r="C285" s="9" t="s">
         <v>661</v>
       </c>
-      <c r="D285" s="19">
-        <v>1</v>
+      <c r="D285" s="20">
+        <v>62</v>
       </c>
       <c r="E285" s="7"/>
     </row>
@@ -10505,8 +10518,8 @@
       <c r="C286" s="9" t="s">
         <v>663</v>
       </c>
-      <c r="D286" s="19">
-        <v>1</v>
+      <c r="D286" s="20">
+        <v>62</v>
       </c>
       <c r="E286" s="7"/>
     </row>
@@ -10520,8 +10533,8 @@
       <c r="C287" s="9" t="s">
         <v>665</v>
       </c>
-      <c r="D287" s="19">
-        <v>1</v>
+      <c r="D287" s="20">
+        <v>61</v>
       </c>
       <c r="E287" s="7"/>
     </row>
@@ -10535,8 +10548,8 @@
       <c r="C288" s="9" t="s">
         <v>667</v>
       </c>
-      <c r="D288" s="19">
-        <v>1</v>
+      <c r="D288" s="20">
+        <v>60</v>
       </c>
       <c r="E288" s="7"/>
     </row>
@@ -10550,8 +10563,8 @@
       <c r="C289" s="9" t="s">
         <v>669</v>
       </c>
-      <c r="D289" s="19">
-        <v>1</v>
+      <c r="D289" s="20">
+        <v>60</v>
       </c>
       <c r="E289" s="7"/>
     </row>
@@ -10565,8 +10578,8 @@
       <c r="C290" s="9" t="s">
         <v>671</v>
       </c>
-      <c r="D290" s="19">
-        <v>1</v>
+      <c r="D290" s="20">
+        <v>61</v>
       </c>
       <c r="E290" s="7"/>
     </row>
@@ -10580,8 +10593,8 @@
       <c r="C291" s="9" t="s">
         <v>673</v>
       </c>
-      <c r="D291" s="19">
-        <v>1</v>
+      <c r="D291" s="20">
+        <v>62</v>
       </c>
       <c r="E291" s="7"/>
     </row>
@@ -10595,8 +10608,8 @@
       <c r="C292" s="9" t="s">
         <v>675</v>
       </c>
-      <c r="D292" s="19">
-        <v>1</v>
+      <c r="D292" s="20">
+        <v>61</v>
       </c>
       <c r="E292" s="7"/>
     </row>
@@ -10610,8 +10623,8 @@
       <c r="C293" s="9" t="s">
         <v>677</v>
       </c>
-      <c r="D293" s="19">
-        <v>1</v>
+      <c r="D293" s="20">
+        <v>63</v>
       </c>
       <c r="E293" s="7"/>
     </row>
@@ -10625,8 +10638,8 @@
       <c r="C294" s="9" t="s">
         <v>679</v>
       </c>
-      <c r="D294" s="19">
-        <v>1</v>
+      <c r="D294" s="20">
+        <v>60</v>
       </c>
       <c r="E294" s="7"/>
     </row>
@@ -10640,8 +10653,8 @@
       <c r="C295" s="9" t="s">
         <v>681</v>
       </c>
-      <c r="D295" s="19">
-        <v>1</v>
+      <c r="D295" s="20">
+        <v>60</v>
       </c>
       <c r="E295" s="7"/>
     </row>
@@ -10655,8 +10668,8 @@
       <c r="C296" s="9" t="s">
         <v>683</v>
       </c>
-      <c r="D296" s="19">
-        <v>1</v>
+      <c r="D296" s="20">
+        <v>62</v>
       </c>
       <c r="E296" s="7"/>
     </row>
@@ -10670,8 +10683,8 @@
       <c r="C297" s="9" t="s">
         <v>685</v>
       </c>
-      <c r="D297" s="19">
-        <v>1</v>
+      <c r="D297" s="20">
+        <v>62</v>
       </c>
       <c r="E297" s="7"/>
     </row>
@@ -10685,8 +10698,8 @@
       <c r="C298" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="D298" s="19">
-        <v>1</v>
+      <c r="D298" s="20">
+        <v>63</v>
       </c>
       <c r="E298" s="7"/>
     </row>
@@ -10700,8 +10713,8 @@
       <c r="C299" s="9" t="s">
         <v>689</v>
       </c>
-      <c r="D299" s="19">
-        <v>1</v>
+      <c r="D299" s="20">
+        <v>62</v>
       </c>
       <c r="E299" s="7"/>
     </row>
@@ -10715,8 +10728,8 @@
       <c r="C300" s="9" t="s">
         <v>691</v>
       </c>
-      <c r="D300" s="19">
-        <v>1</v>
+      <c r="D300" s="20">
+        <v>61</v>
       </c>
       <c r="E300" s="7"/>
     </row>
@@ -10730,8 +10743,8 @@
       <c r="C301" s="9" t="s">
         <v>693</v>
       </c>
-      <c r="D301" s="19">
-        <v>1</v>
+      <c r="D301" s="20">
+        <v>60</v>
       </c>
       <c r="E301" s="7"/>
     </row>
@@ -10745,8 +10758,8 @@
       <c r="C302" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="D302" s="19">
-        <v>1</v>
+      <c r="D302" s="20">
+        <v>60</v>
       </c>
       <c r="E302" s="7"/>
     </row>
@@ -10760,8 +10773,8 @@
       <c r="C303" s="9" t="s">
         <v>697</v>
       </c>
-      <c r="D303" s="19">
-        <v>1</v>
+      <c r="D303" s="20">
+        <v>61</v>
       </c>
       <c r="E303" s="7"/>
     </row>
@@ -10775,8 +10788,8 @@
       <c r="C304" s="9" t="s">
         <v>699</v>
       </c>
-      <c r="D304" s="19">
-        <v>1</v>
+      <c r="D304" s="20">
+        <v>61</v>
       </c>
       <c r="E304" s="7"/>
     </row>
@@ -10790,15 +10803,15 @@
       <c r="C305" s="9" t="s">
         <v>701</v>
       </c>
-      <c r="D305" s="19">
-        <v>1</v>
+      <c r="D305" s="20">
+        <v>62</v>
       </c>
       <c r="E305" s="7"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A2:E305">
-    <sortState ref="A3:E305">
+    <sortState ref="A2:E305">
       <sortCondition ref="D2" descending="1"/>
     </sortState>
   </autoFilter>
@@ -10818,9 +10831,9 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -10861,7 +10874,7 @@
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:5">
       <c r="A3" s="7" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>703</v>
@@ -10870,13 +10883,13 @@
         <v>704</v>
       </c>
       <c r="D3" s="18">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E3" s="7"/>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:5">
       <c r="A4" s="7" t="s">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>705</v>
@@ -10884,14 +10897,14 @@
       <c r="C4" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="D4" s="18">
-        <v>70</v>
+      <c r="D4" s="19">
+        <v>99</v>
       </c>
       <c r="E4" s="7"/>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:5">
       <c r="A5" s="7" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>707</v>
@@ -10899,14 +10912,14 @@
       <c r="C5" s="9" t="s">
         <v>708</v>
       </c>
-      <c r="D5" s="18">
-        <v>80</v>
+      <c r="D5" s="19">
+        <v>98</v>
       </c>
       <c r="E5" s="7"/>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:5">
       <c r="A6" s="7" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>709</v>
@@ -10914,14 +10927,14 @@
       <c r="C6" s="9" t="s">
         <v>710</v>
       </c>
-      <c r="D6" s="18">
-        <v>75</v>
+      <c r="D6" s="19">
+        <v>96</v>
       </c>
       <c r="E6" s="7"/>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:5">
       <c r="A7" s="7" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>711</v>
@@ -10929,14 +10942,14 @@
       <c r="C7" s="9" t="s">
         <v>712</v>
       </c>
-      <c r="D7" s="18">
-        <v>80</v>
+      <c r="D7" s="19">
+        <v>95</v>
       </c>
       <c r="E7" s="7"/>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:5">
       <c r="A8" s="7" t="s">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>713</v>
@@ -10945,13 +10958,13 @@
         <v>714</v>
       </c>
       <c r="D8" s="18">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E8" s="7"/>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:5">
       <c r="A9" s="7" t="s">
-        <v>85</v>
+        <v>613</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>715</v>
@@ -10960,13 +10973,13 @@
         <v>716</v>
       </c>
       <c r="D9" s="18">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E9" s="7"/>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:5">
       <c r="A10" s="7" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>717</v>
@@ -10974,14 +10987,14 @@
       <c r="C10" s="9" t="s">
         <v>718</v>
       </c>
-      <c r="D10" s="18">
-        <v>65</v>
+      <c r="D10" s="19">
+        <v>92</v>
       </c>
       <c r="E10" s="7"/>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:5">
       <c r="A11" s="7" t="s">
-        <v>105</v>
+        <v>435</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>719</v>
@@ -10989,14 +11002,14 @@
       <c r="C11" s="9" t="s">
         <v>720</v>
       </c>
-      <c r="D11" s="18">
-        <v>78</v>
+      <c r="D11" s="19">
+        <v>91</v>
       </c>
       <c r="E11" s="7"/>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:5">
       <c r="A12" s="7" t="s">
-        <v>245</v>
+        <v>284</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>721</v>
@@ -11004,12 +11017,14 @@
       <c r="C12" s="9" t="s">
         <v>722</v>
       </c>
-      <c r="D12" s="18"/>
+      <c r="D12" s="18">
+        <v>89</v>
+      </c>
       <c r="E12" s="7"/>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:5">
       <c r="A13" s="7" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>723</v>
@@ -11017,12 +11032,14 @@
       <c r="C13" s="9" t="s">
         <v>724</v>
       </c>
-      <c r="D13" s="18"/>
+      <c r="D13" s="18">
+        <v>86</v>
+      </c>
       <c r="E13" s="7"/>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:5">
       <c r="A14" s="7" t="s">
-        <v>208</v>
+        <v>35</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>725</v>
@@ -11031,13 +11048,13 @@
         <v>726</v>
       </c>
       <c r="D14" s="18">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E14" s="7"/>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:5">
       <c r="A15" s="7" t="s">
-        <v>58</v>
+        <v>178</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>727</v>
@@ -11045,38 +11062,36 @@
       <c r="C15" s="9" t="s">
         <v>728</v>
       </c>
-      <c r="D15" s="18">
-        <v>82</v>
+      <c r="D15" s="19">
+        <v>86</v>
       </c>
       <c r="E15" s="7"/>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:5">
       <c r="A16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9" t="s">
         <v>729</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>730</v>
-      </c>
-      <c r="D16" s="18">
-        <v>86</v>
+      <c r="D16" s="19">
+        <v>85</v>
       </c>
       <c r="E16" s="7"/>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:5">
       <c r="A17" s="7" t="s">
-        <v>300</v>
+        <v>354</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>731</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>732</v>
-      </c>
-      <c r="D17" s="18">
-        <v>67</v>
+      <c r="D17" s="19">
+        <v>85</v>
       </c>
       <c r="E17" s="7"/>
     </row>
@@ -11085,10 +11100,10 @@
         <v>71</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>733</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>734</v>
       </c>
       <c r="D18" s="18">
         <v>83</v>
@@ -11097,209 +11112,209 @@
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:5">
       <c r="A19" s="7" t="s">
-        <v>50</v>
+        <v>472</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>735</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>736</v>
-      </c>
-      <c r="D19" s="18">
-        <v>99</v>
+      <c r="D19" s="19">
+        <v>83</v>
       </c>
       <c r="E19" s="7"/>
     </row>
     <row r="20" ht="20" customHeight="1" spans="1:5">
       <c r="A20" s="7" t="s">
-        <v>613</v>
+        <v>58</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>737</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>738</v>
-      </c>
       <c r="D20" s="18">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E20" s="7"/>
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:5">
       <c r="A21" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>739</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="B21" s="8"/>
       <c r="C21" s="9" t="s">
-        <v>740</v>
-      </c>
-      <c r="D21" s="18">
-        <v>70</v>
+        <v>738</v>
+      </c>
+      <c r="D21" s="19">
+        <v>82</v>
       </c>
       <c r="E21" s="7"/>
     </row>
     <row r="22" ht="20" customHeight="1" spans="1:5">
       <c r="A22" s="7" t="s">
-        <v>387</v>
+        <v>43</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D22" s="18">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E22" s="7"/>
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:5">
       <c r="A23" s="7" t="s">
-        <v>248</v>
+        <v>102</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>744</v>
-      </c>
-      <c r="D23" s="19">
-        <v>78</v>
+        <v>742</v>
+      </c>
+      <c r="D23" s="18">
+        <v>80</v>
       </c>
       <c r="E23" s="7"/>
     </row>
     <row r="24" ht="20" customHeight="1" spans="1:5">
       <c r="A24" s="7" t="s">
-        <v>390</v>
+        <v>85</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>746</v>
-      </c>
-      <c r="D24" s="19">
-        <v>69</v>
+        <v>744</v>
+      </c>
+      <c r="D24" s="18">
+        <v>80</v>
       </c>
       <c r="E24" s="7"/>
     </row>
     <row r="25" ht="20" customHeight="1" spans="1:5">
       <c r="A25" s="7" t="s">
-        <v>63</v>
+        <v>532</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D25" s="19">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E25" s="7"/>
     </row>
     <row r="26" ht="20" customHeight="1" spans="1:5">
       <c r="A26" s="7" t="s">
-        <v>125</v>
+        <v>272</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D26" s="19">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="E26" s="7"/>
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:5">
       <c r="A27" s="7" t="s">
-        <v>472</v>
+        <v>105</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>752</v>
-      </c>
-      <c r="D27" s="19">
-        <v>83</v>
+        <v>750</v>
+      </c>
+      <c r="D27" s="18">
+        <v>78</v>
       </c>
       <c r="E27" s="7"/>
     </row>
     <row r="28" ht="20" customHeight="1" spans="1:5">
       <c r="A28" s="7" t="s">
-        <v>435</v>
+        <v>248</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D28" s="19">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E28" s="7"/>
     </row>
     <row r="29" ht="20" customHeight="1" spans="1:5">
       <c r="A29" s="7" t="s">
-        <v>438</v>
+        <v>303</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D29" s="19">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E29" s="7"/>
     </row>
     <row r="30" ht="20" customHeight="1" spans="1:5">
       <c r="A30" s="7" t="s">
-        <v>320</v>
+        <v>387</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>758</v>
-      </c>
-      <c r="D30" s="19"/>
+        <v>756</v>
+      </c>
+      <c r="D30" s="18">
+        <v>76</v>
+      </c>
       <c r="E30" s="7"/>
     </row>
     <row r="31" ht="20" customHeight="1" spans="1:5">
       <c r="A31" s="7" t="s">
-        <v>393</v>
+        <v>99</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>760</v>
-      </c>
-      <c r="D31" s="19">
-        <v>68</v>
+        <v>758</v>
+      </c>
+      <c r="D31" s="18">
+        <v>75</v>
       </c>
       <c r="E31" s="7"/>
     </row>
     <row r="32" ht="20" customHeight="1" spans="1:5">
       <c r="A32" s="7" t="s">
-        <v>76</v>
+        <v>269</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D32" s="19">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E32" s="7"/>
     </row>
@@ -11308,10 +11323,10 @@
         <v>172</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D33" s="19">
         <v>74</v>
@@ -11320,133 +11335,137 @@
     </row>
     <row r="34" ht="20" customHeight="1" spans="1:5">
       <c r="A34" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="B34" s="8"/>
+        <v>76</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>763</v>
+      </c>
       <c r="C34" s="9" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D34" s="19">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E34" s="7"/>
     </row>
     <row r="35" ht="20" customHeight="1" spans="1:5">
       <c r="A35" s="7" t="s">
-        <v>354</v>
+        <v>438</v>
       </c>
       <c r="B35" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>766</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>767</v>
-      </c>
       <c r="D35" s="19">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="E35" s="7"/>
     </row>
     <row r="36" ht="20" customHeight="1" spans="1:5">
       <c r="A36" s="7" t="s">
-        <v>303</v>
+        <v>136</v>
       </c>
       <c r="B36" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>768</v>
       </c>
-      <c r="C36" s="9" t="s">
-        <v>769</v>
-      </c>
-      <c r="D36" s="19">
-        <v>78</v>
+      <c r="D36" s="18">
+        <v>70</v>
       </c>
       <c r="E36" s="7"/>
     </row>
     <row r="37" ht="20" customHeight="1" spans="1:5">
       <c r="A37" s="7" t="s">
-        <v>266</v>
+        <v>428</v>
       </c>
       <c r="B37" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>770</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>771</v>
-      </c>
-      <c r="D37" s="19">
-        <v>92</v>
+      <c r="D37" s="18">
+        <v>70</v>
       </c>
       <c r="E37" s="7"/>
     </row>
     <row r="38" ht="20" customHeight="1" spans="1:5">
       <c r="A38" s="7" t="s">
-        <v>131</v>
+        <v>390</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>772</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>773</v>
-      </c>
       <c r="D38" s="19">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E38" s="7"/>
     </row>
     <row r="39" ht="20" customHeight="1" spans="1:5">
       <c r="A39" s="7" t="s">
-        <v>532</v>
+        <v>393</v>
       </c>
       <c r="B39" s="8" t="s">
+        <v>773</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>774</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>775</v>
-      </c>
       <c r="D39" s="19">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E39" s="7"/>
     </row>
     <row r="40" ht="20" customHeight="1" spans="1:5">
       <c r="A40" s="7" t="s">
-        <v>178</v>
+        <v>275</v>
       </c>
       <c r="B40" s="8" t="s">
+        <v>775</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>776</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>777</v>
-      </c>
       <c r="D40" s="19">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E40" s="7"/>
     </row>
     <row r="41" ht="20" customHeight="1" spans="1:5">
       <c r="A41" s="7" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="B41" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>778</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>779</v>
-      </c>
-      <c r="D41" s="19">
-        <v>75</v>
+      <c r="D41" s="18">
+        <v>67</v>
       </c>
       <c r="E41" s="7"/>
     </row>
     <row r="42" ht="20" customHeight="1" spans="1:5">
       <c r="A42" s="7" t="s">
-        <v>233</v>
+        <v>295</v>
       </c>
       <c r="B42" s="8" t="s">
+        <v>779</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>780</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>781</v>
-      </c>
-      <c r="D42" s="19"/>
+      <c r="D42" s="18">
+        <v>65</v>
+      </c>
       <c r="E42" s="7"/>
     </row>
     <row r="43" ht="20" customHeight="1" spans="1:5">
@@ -11454,10 +11473,10 @@
         <v>197</v>
       </c>
       <c r="B43" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>782</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>783</v>
       </c>
       <c r="D43" s="19">
         <v>65</v>
@@ -11466,107 +11485,106 @@
     </row>
     <row r="44" ht="20" customHeight="1" spans="1:5">
       <c r="A44" s="7" t="s">
-        <v>272</v>
+        <v>125</v>
       </c>
       <c r="B44" s="8" t="s">
+        <v>783</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>784</v>
       </c>
-      <c r="C44" s="9" t="s">
-        <v>785</v>
-      </c>
       <c r="D44" s="19">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E44" s="7"/>
     </row>
     <row r="45" ht="20" customHeight="1" spans="1:5">
       <c r="A45" s="7" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="B45" s="8" t="s">
+        <v>785</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>786</v>
       </c>
-      <c r="C45" s="9" t="s">
-        <v>787</v>
-      </c>
       <c r="D45" s="19">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="E45" s="7"/>
     </row>
     <row r="46" ht="20" customHeight="1" spans="1:5">
       <c r="A46" s="7" t="s">
-        <v>38</v>
+        <v>245</v>
       </c>
       <c r="B46" s="8" t="s">
+        <v>787</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>788</v>
       </c>
-      <c r="C46" s="9" t="s">
-        <v>789</v>
-      </c>
-      <c r="D46" s="19">
-        <v>99</v>
-      </c>
+      <c r="D46" s="18"/>
       <c r="E46" s="7"/>
     </row>
     <row r="47" ht="20" customHeight="1" spans="1:5">
       <c r="A47" s="7" t="s">
-        <v>275</v>
+        <v>167</v>
       </c>
       <c r="B47" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>790</v>
       </c>
-      <c r="C47" s="9" t="s">
-        <v>791</v>
-      </c>
-      <c r="D47" s="19">
-        <v>68</v>
-      </c>
+      <c r="D47" s="18"/>
       <c r="E47" s="7"/>
     </row>
     <row r="48" ht="20" customHeight="1" spans="1:5">
       <c r="A48" s="7" t="s">
-        <v>94</v>
+        <v>320</v>
       </c>
       <c r="B48" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>792</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>793</v>
-      </c>
-      <c r="D48" s="19">
-        <v>98</v>
-      </c>
+      <c r="D48" s="19"/>
       <c r="E48" s="7"/>
     </row>
     <row r="49" ht="20" customHeight="1" spans="1:5">
       <c r="A49" s="7" t="s">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="B49" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>794</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>795</v>
       </c>
       <c r="D49" s="19"/>
       <c r="E49" s="7"/>
     </row>
     <row r="50" ht="20" customHeight="1" spans="1:5">
       <c r="A50" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="B50" s="8"/>
+        <v>79</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>795</v>
+      </c>
       <c r="C50" s="9" t="s">
         <v>796</v>
       </c>
-      <c r="D50" s="19">
-        <v>82</v>
-      </c>
+      <c r="D50" s="19"/>
       <c r="E50" s="7"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <autoFilter ref="A2:E50">
+    <sortState ref="A2:E50">
+      <sortCondition ref="D2" descending="1"/>
+    </sortState>
+  </autoFilter>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -13721,7 +13739,6 @@
         <v>1019</v>
       </c>
       <c r="B1"/>
-      <c r="C1"/>
       <c r="D1" s="2">
         <v>1</v>
       </c>
